--- a/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1388 - RNCNOM, Isidro  _MO</t>
   </si>
@@ -50,31 +50,34 @@
     <t>En proceso</t>
   </si>
   <si>
-    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información</t>
+    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información(sin resolver)</t>
   </si>
   <si>
     <t>Falta efecto en plan de proyecto</t>
   </si>
   <si>
-    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo.</t>
+    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo.(sin resolver)</t>
   </si>
   <si>
     <t>Plan de comunicación con datos de mas</t>
   </si>
   <si>
-    <t>Al no requerir implementacion no debe decir los mensajes de implementacion</t>
+    <t>Al no requerir implementacion no debe decir los mensajes de implementacion(sin resolver)</t>
   </si>
   <si>
     <t>En equipo de trabajo agregar nombre de empresa</t>
   </si>
   <si>
-    <t>Cerrada</t>
-  </si>
-  <si>
-    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente</t>
+    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente(sin resolver)</t>
   </si>
   <si>
     <t>cd </t>
+  </si>
+  <si>
+    <t>cambiar nombre en plan de proyecto a plan_de_proyecto</t>
+  </si>
+  <si>
+    <t>Sin resolver</t>
   </si>
 </sst>
 </file>
@@ -318,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,7 +402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
@@ -441,7 +444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
@@ -456,24 +459,32 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="n">
+        <v>42369</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">

--- a/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1388 - RNCNOM, Isidro  _MO</t>
   </si>
@@ -50,34 +50,31 @@
     <t>En proceso</t>
   </si>
   <si>
-    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información(sin resolver)</t>
+    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información</t>
   </si>
   <si>
     <t>Falta efecto en plan de proyecto</t>
   </si>
   <si>
-    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo.(sin resolver)</t>
+    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo.</t>
   </si>
   <si>
     <t>Plan de comunicación con datos de mas</t>
   </si>
   <si>
-    <t>Al no requerir implementacion no debe decir los mensajes de implementacion(sin resolver)</t>
+    <t>Al no requerir implementacion no debe decir los mensajes de implementacion</t>
   </si>
   <si>
     <t>En equipo de trabajo agregar nombre de empresa</t>
   </si>
   <si>
-    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente(sin resolver)</t>
+    <t>Cerrada</t>
+  </si>
+  <si>
+    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente</t>
   </si>
   <si>
     <t>cd </t>
-  </si>
-  <si>
-    <t>cambiar nombre en plan de proyecto a plan_de_proyecto</t>
-  </si>
-  <si>
-    <t>Sin resolver</t>
   </si>
 </sst>
 </file>
@@ -321,8 +318,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,7 +399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
@@ -444,7 +441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
@@ -459,32 +456,24 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>42369</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">

--- a/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1388 - RNCNOM, Isidro  _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1388 - RNCNOM, Isidro  _MO</t>
   </si>
@@ -44,10 +44,10 @@
     <t>Agregar fecha de cierre en hito cierre, plan de proyecto</t>
   </si>
   <si>
-    <t>Oriana Osiris</t>
-  </si>
-  <si>
-    <t>En proceso</t>
+    <t>Marisol Ornelas</t>
+  </si>
+  <si>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>En equipo de trabajo agregar nombre de empresa</t>
-  </si>
-  <si>
-    <t>Cerrada</t>
   </si>
   <si>
     <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente</t>
@@ -319,7 +316,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,7 +388,9 @@
       <c r="D4" s="5" t="n">
         <v>42369</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -412,7 +411,9 @@
       <c r="D5" s="5" t="n">
         <v>42369</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
@@ -433,7 +434,9 @@
       <c r="D6" s="5" t="n">
         <v>42369</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -454,22 +457,22 @@
       <c r="D7" s="5" t="n">
         <v>42369</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
